--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1CFBF-C47A-4B74-9F2F-71506B82E926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B465D9E-3652-493C-9B29-2985D28A9F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10302,10 +10302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计无症状治愈人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>核减人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10315,6 +10311,10 @@
   </si>
   <si>
     <t>http://www.hnwsjsw.gov.cn/contents/858/49208.shtml</t>
+  </si>
+  <si>
+    <t>累计无症状感染治愈人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10782,8 +10782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10898,13 +10898,13 @@
         <v>3301</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>3305</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>3303</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>3302</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>3304</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>3303</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>16</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC2" s="13"/>
       <c r="AF2" s="13">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="AA3" s="18"/>
       <c r="AB3" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AF3" s="13">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC4" s="13"/>
       <c r="AF4" s="13">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="AA5" s="18"/>
       <c r="AB5" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AF5" s="13">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC6" s="13"/>
       <c r="AF6" s="13">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="AA7" s="18"/>
       <c r="AB7" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC7" s="13"/>
       <c r="AF7" s="13">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="AA8" s="18"/>
       <c r="AB8" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC8" s="13"/>
       <c r="AF8" s="13">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AF9" s="13">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AF10" s="13">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC11" s="13"/>
       <c r="AF11" s="13">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="AA12" s="18"/>
       <c r="AB12" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AF12" s="13">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="AA13" s="18"/>
       <c r="AB13" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC13" s="13"/>
       <c r="AF13" s="13">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="AA14" s="18"/>
       <c r="AB14" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC14" s="13"/>
       <c r="AF14" s="13">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="AA15" s="18"/>
       <c r="AB15" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC15" s="13"/>
       <c r="AF15" s="13">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC16" s="13"/>
       <c r="AF16" s="13">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="AA17" s="18"/>
       <c r="AB17" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC17" s="13"/>
       <c r="AF17" s="13">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="AA18" s="18"/>
       <c r="AB18" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC18" s="13"/>
       <c r="AF18" s="13">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC19" s="13"/>
       <c r="AF19" s="13">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="AA20" s="18"/>
       <c r="AB20" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AF20" s="13">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="AA21" s="18"/>
       <c r="AB21" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AF21" s="13">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="AA22" s="18"/>
       <c r="AB22" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AF22" s="13">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AA23" s="18"/>
       <c r="AB23" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AF23" s="13">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="AA24" s="18"/>
       <c r="AB24" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC24" s="13"/>
       <c r="AF24" s="13">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AA25" s="18"/>
       <c r="AB25" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC25" s="13"/>
       <c r="AF25" s="13">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="AA26" s="18"/>
       <c r="AB26" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AF26" s="13">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="AA27" s="18"/>
       <c r="AB27" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AF27" s="13">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="AA28" s="18"/>
       <c r="AB28" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AF28" s="13">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="AA29" s="18"/>
       <c r="AB29" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AF29" s="13">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="AA30" s="18"/>
       <c r="AB30" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AF30" s="13">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="AA31" s="18"/>
       <c r="AB31" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AF31" s="13">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="AA32" s="18"/>
       <c r="AB32" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AF32" s="13">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="AA33" s="18"/>
       <c r="AB33" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AF33" s="13">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="AA34" s="18"/>
       <c r="AB34" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC34" s="13"/>
       <c r="AF34" s="13">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="AA35" s="18"/>
       <c r="AB35" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AF35" s="13">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="AA36" s="18"/>
       <c r="AB36" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC36" s="13"/>
       <c r="AF36" s="13">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="AA37" s="18"/>
       <c r="AB37" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC37" s="13"/>
       <c r="AF37" s="13">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="AA38" s="18"/>
       <c r="AB38" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC38" s="13"/>
       <c r="AF38" s="13">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="AA39" s="18"/>
       <c r="AB39" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AF39" s="13">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AF40" s="13">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="AA41" s="18"/>
       <c r="AB41" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AF41" s="13">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AF42" s="13">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="AA43" s="18"/>
       <c r="AB43" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AF43" s="13">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="AA44" s="18"/>
       <c r="AB44" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AF44" s="13">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AF45" s="13">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="AA46" s="18"/>
       <c r="AB46" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AF46" s="13">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="AA47" s="18"/>
       <c r="AB47" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AF47" s="13">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AF48" s="13">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="AA49" s="18"/>
       <c r="AB49" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AF49" s="13">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC50" s="13"/>
       <c r="AF50" s="13">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="AA51" s="18"/>
       <c r="AB51" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC51" s="13"/>
       <c r="AF51" s="13">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="AA52" s="18"/>
       <c r="AB52" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC52" s="13"/>
       <c r="AF52" s="13">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="AA53" s="18"/>
       <c r="AB53" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC53" s="13"/>
       <c r="AF53" s="13">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="AA54" s="18"/>
       <c r="AB54" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC54" s="13"/>
       <c r="AF54" s="13">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AA55" s="18"/>
       <c r="AB55" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AF55" s="13">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="AA56" s="18"/>
       <c r="AB56" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AF56" s="13">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="AA57" s="18"/>
       <c r="AB57" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AF57" s="13">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="AA58" s="18"/>
       <c r="AB58" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC58" s="13"/>
       <c r="AF58" s="13">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="AA59" s="18"/>
       <c r="AB59" s="20" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AF59" s="13">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="AA60" s="18"/>
       <c r="AB60" s="19" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AC60" s="13"/>
       <c r="AF60" s="13">

--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B465D9E-3652-493C-9B29-2985D28A9F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C389B-1FF6-4182-B332-0695EBD2D302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10298,23 +10298,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计无症状感染人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>核减人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计无症状死亡人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.hnwsjsw.gov.cn/contents/858/49208.shtml</t>
   </si>
   <si>
+    <t>累计无症状感染人数</t>
+  </si>
+  <si>
     <t>累计无症状感染治愈人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计无症状感染死亡人数</t>
   </si>
 </sst>
 </file>
@@ -10782,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10807,9 +10804,9 @@
     <col min="17" max="17" width="5.26953125" style="12" customWidth="1"/>
     <col min="18" max="18" width="6.7265625" style="12" customWidth="1"/>
     <col min="19" max="19" width="10.26953125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="22.90625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" style="12" customWidth="1"/>
     <col min="23" max="23" width="7.54296875" style="12" customWidth="1"/>
     <col min="24" max="24" width="9.54296875" style="12" customWidth="1"/>
     <col min="25" max="25" width="22" style="12" customWidth="1"/>
@@ -10895,16 +10892,16 @@
         <v>15</v>
       </c>
       <c r="T1" s="14" t="s">
+        <v>3303</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>3304</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>3305</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>3301</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>3305</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>3303</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>3302</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>16</v>
@@ -11023,7 +11020,7 @@
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC2" s="13"/>
       <c r="AF2" s="13">
@@ -11086,7 +11083,7 @@
       </c>
       <c r="AA3" s="18"/>
       <c r="AB3" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AF3" s="13">
@@ -11149,7 +11146,7 @@
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC4" s="13"/>
       <c r="AF4" s="13">
@@ -11210,7 +11207,7 @@
       </c>
       <c r="AA5" s="18"/>
       <c r="AB5" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AF5" s="13">
@@ -11273,7 +11270,7 @@
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC6" s="13"/>
       <c r="AF6" s="13">
@@ -11334,7 +11331,7 @@
       </c>
       <c r="AA7" s="18"/>
       <c r="AB7" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC7" s="13"/>
       <c r="AF7" s="13">
@@ -11397,7 +11394,7 @@
       </c>
       <c r="AA8" s="18"/>
       <c r="AB8" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC8" s="13"/>
       <c r="AF8" s="13">
@@ -11460,7 +11457,7 @@
       </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AF9" s="13">
@@ -11523,7 +11520,7 @@
       </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AF10" s="13">
@@ -11584,7 +11581,7 @@
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC11" s="13"/>
       <c r="AF11" s="13">
@@ -11647,7 +11644,7 @@
       </c>
       <c r="AA12" s="18"/>
       <c r="AB12" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AF12" s="13">
@@ -11708,7 +11705,7 @@
       </c>
       <c r="AA13" s="18"/>
       <c r="AB13" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC13" s="13"/>
       <c r="AF13" s="13">
@@ -11771,7 +11768,7 @@
       </c>
       <c r="AA14" s="18"/>
       <c r="AB14" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC14" s="13"/>
       <c r="AF14" s="13">
@@ -11832,7 +11829,7 @@
       </c>
       <c r="AA15" s="18"/>
       <c r="AB15" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC15" s="13"/>
       <c r="AF15" s="13">
@@ -11895,7 +11892,7 @@
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC16" s="13"/>
       <c r="AF16" s="13">
@@ -11958,7 +11955,7 @@
       </c>
       <c r="AA17" s="18"/>
       <c r="AB17" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC17" s="13"/>
       <c r="AF17" s="13">
@@ -12021,7 +12018,7 @@
       </c>
       <c r="AA18" s="18"/>
       <c r="AB18" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC18" s="13"/>
       <c r="AF18" s="13">
@@ -12084,7 +12081,7 @@
       </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC19" s="13"/>
       <c r="AF19" s="13">
@@ -12147,7 +12144,7 @@
       </c>
       <c r="AA20" s="18"/>
       <c r="AB20" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AF20" s="13">
@@ -12210,7 +12207,7 @@
       </c>
       <c r="AA21" s="18"/>
       <c r="AB21" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AF21" s="13">
@@ -12273,7 +12270,7 @@
       </c>
       <c r="AA22" s="18"/>
       <c r="AB22" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AF22" s="13">
@@ -12336,7 +12333,7 @@
       </c>
       <c r="AA23" s="18"/>
       <c r="AB23" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AF23" s="13">
@@ -12399,7 +12396,7 @@
       </c>
       <c r="AA24" s="18"/>
       <c r="AB24" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC24" s="13"/>
       <c r="AF24" s="13">
@@ -12462,7 +12459,7 @@
       </c>
       <c r="AA25" s="18"/>
       <c r="AB25" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC25" s="13"/>
       <c r="AF25" s="13">
@@ -12525,7 +12522,7 @@
       </c>
       <c r="AA26" s="18"/>
       <c r="AB26" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AF26" s="13">
@@ -12588,7 +12585,7 @@
       </c>
       <c r="AA27" s="18"/>
       <c r="AB27" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AF27" s="13">
@@ -12651,7 +12648,7 @@
       </c>
       <c r="AA28" s="18"/>
       <c r="AB28" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AF28" s="13">
@@ -12712,7 +12709,7 @@
       </c>
       <c r="AA29" s="18"/>
       <c r="AB29" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AF29" s="13">
@@ -12773,7 +12770,7 @@
       </c>
       <c r="AA30" s="18"/>
       <c r="AB30" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AF30" s="13">
@@ -12836,7 +12833,7 @@
       </c>
       <c r="AA31" s="18"/>
       <c r="AB31" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AF31" s="13">
@@ -12899,7 +12896,7 @@
       </c>
       <c r="AA32" s="18"/>
       <c r="AB32" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AF32" s="13">
@@ -12962,7 +12959,7 @@
       </c>
       <c r="AA33" s="18"/>
       <c r="AB33" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AF33" s="13">
@@ -13025,7 +13022,7 @@
       </c>
       <c r="AA34" s="18"/>
       <c r="AB34" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC34" s="13"/>
       <c r="AF34" s="13">
@@ -13088,7 +13085,7 @@
       </c>
       <c r="AA35" s="18"/>
       <c r="AB35" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AF35" s="13">
@@ -13151,7 +13148,7 @@
       </c>
       <c r="AA36" s="18"/>
       <c r="AB36" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC36" s="13"/>
       <c r="AF36" s="13">
@@ -13214,7 +13211,7 @@
       </c>
       <c r="AA37" s="18"/>
       <c r="AB37" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC37" s="13"/>
       <c r="AF37" s="13">
@@ -13277,7 +13274,7 @@
       </c>
       <c r="AA38" s="18"/>
       <c r="AB38" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC38" s="13"/>
       <c r="AF38" s="13">
@@ -13340,7 +13337,7 @@
       </c>
       <c r="AA39" s="18"/>
       <c r="AB39" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AF39" s="13">
@@ -13403,7 +13400,7 @@
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AF40" s="13">
@@ -13466,7 +13463,7 @@
       </c>
       <c r="AA41" s="18"/>
       <c r="AB41" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AF41" s="13">
@@ -13527,7 +13524,7 @@
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AF42" s="13">
@@ -13592,7 +13589,7 @@
       </c>
       <c r="AA43" s="18"/>
       <c r="AB43" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AF43" s="13">
@@ -13657,7 +13654,7 @@
       </c>
       <c r="AA44" s="18"/>
       <c r="AB44" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AF44" s="13">
@@ -13722,7 +13719,7 @@
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AF45" s="13">
@@ -13787,7 +13784,7 @@
       </c>
       <c r="AA46" s="18"/>
       <c r="AB46" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AF46" s="13">
@@ -13852,7 +13849,7 @@
       </c>
       <c r="AA47" s="18"/>
       <c r="AB47" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AF47" s="13">
@@ -13917,7 +13914,7 @@
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AF48" s="13">
@@ -13980,7 +13977,7 @@
       </c>
       <c r="AA49" s="18"/>
       <c r="AB49" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AF49" s="13">
@@ -14043,7 +14040,7 @@
       </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC50" s="13"/>
       <c r="AF50" s="13">
@@ -14104,7 +14101,7 @@
       </c>
       <c r="AA51" s="18"/>
       <c r="AB51" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC51" s="13"/>
       <c r="AF51" s="13">
@@ -14165,7 +14162,7 @@
       </c>
       <c r="AA52" s="18"/>
       <c r="AB52" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC52" s="13"/>
       <c r="AF52" s="13">
@@ -14226,7 +14223,7 @@
       </c>
       <c r="AA53" s="18"/>
       <c r="AB53" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC53" s="13"/>
       <c r="AF53" s="13">
@@ -14287,7 +14284,7 @@
       </c>
       <c r="AA54" s="18"/>
       <c r="AB54" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC54" s="13"/>
       <c r="AF54" s="13">
@@ -14356,7 +14353,7 @@
       </c>
       <c r="AA55" s="18"/>
       <c r="AB55" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AF55" s="13">
@@ -14419,7 +14416,7 @@
       </c>
       <c r="AA56" s="18"/>
       <c r="AB56" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AF56" s="13">
@@ -14482,7 +14479,7 @@
       </c>
       <c r="AA57" s="18"/>
       <c r="AB57" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AF57" s="13">
@@ -14557,7 +14554,7 @@
       </c>
       <c r="AA58" s="18"/>
       <c r="AB58" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC58" s="13"/>
       <c r="AF58" s="13">
@@ -14629,7 +14626,7 @@
       </c>
       <c r="AA59" s="18"/>
       <c r="AB59" s="20" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AF59" s="13">
@@ -14703,7 +14700,7 @@
       </c>
       <c r="AA60" s="18"/>
       <c r="AB60" s="19" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="AC60" s="13"/>
       <c r="AF60" s="13">
